--- a/第三反復/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/第三反復/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AE955A-6E7C-44A5-8C93-632CD1695C21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D66B9F-104D-4B68-AFDD-FEDD97490385}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1711,6 +1711,30 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1720,7 +1744,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1729,31 +1759,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1780,6 +1789,96 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1809,111 +1908,40 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2600,11 +2628,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X14" sqref="X14"/>
+      <selection pane="bottomRight" activeCell="S83" sqref="S83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2623,120 +2651,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="92" t="s">
+      <c r="A1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="76">
+      <c r="L1" s="109">
         <v>43992</v>
       </c>
-      <c r="M1" s="77"/>
-      <c r="N1" s="76">
+      <c r="M1" s="110"/>
+      <c r="N1" s="109">
         <v>43993</v>
       </c>
-      <c r="O1" s="77"/>
-      <c r="P1" s="76">
+      <c r="O1" s="110"/>
+      <c r="P1" s="109">
         <v>43994</v>
       </c>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="76">
+      <c r="Q1" s="110"/>
+      <c r="R1" s="109">
         <v>43997</v>
       </c>
-      <c r="S1" s="77"/>
+      <c r="S1" s="110"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="96"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="80" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="78" t="s">
+      <c r="M2" s="112"/>
+      <c r="N2" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="81" t="s">
+      <c r="O2" s="111"/>
+      <c r="P2" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="78" t="s">
+      <c r="Q2" s="112"/>
+      <c r="R2" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="79"/>
+      <c r="S2" s="112"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="96"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="84" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="82" t="s">
+      <c r="M3" s="116"/>
+      <c r="N3" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="83"/>
-      <c r="P3" s="82" t="s">
+      <c r="O3" s="116"/>
+      <c r="P3" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="85" t="s">
+      <c r="Q3" s="116"/>
+      <c r="R3" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="85"/>
+      <c r="S3" s="118"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="97"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="88"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2763,15 +2791,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="116"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="84"/>
       <c r="H5" s="13" t="s">
         <v>16</v>
       </c>
@@ -2806,13 +2834,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="117"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="85"/>
       <c r="H6" s="15" t="s">
         <v>17</v>
       </c>
@@ -2822,7 +2850,7 @@
       <c r="L6" s="37"/>
       <c r="M6" s="37"/>
       <c r="N6" s="37">
-        <f t="shared" ref="M6:Q6" si="1">SUM(N8,N24,N44,N60,N78,N86,N100)</f>
+        <f t="shared" ref="N6:Q6" si="1">SUM(N8,N24,N44,N60,N78,N86,N100)</f>
         <v>0</v>
       </c>
       <c r="O6" s="37">
@@ -2831,7 +2859,7 @@
       </c>
       <c r="P6" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" s="37">
         <f t="shared" si="1"/>
@@ -2841,15 +2869,15 @@
       <c r="S6" s="37"/>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="109"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="4" t="s">
         <v>16</v>
       </c>
@@ -2873,13 +2901,13 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="110"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="107"/>
       <c r="H8" s="6" t="s">
         <v>17</v>
       </c>
@@ -2889,12 +2917,12 @@
       </c>
       <c r="K8" s="44">
         <f t="shared" ref="K8:K10" si="2">SUM(L8:S8)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
       <c r="N8" s="30">
-        <f t="shared" ref="M8:S8" si="3">SUM(N10,N16)</f>
+        <f t="shared" ref="N8:S8" si="3">SUM(N10,N16)</f>
         <v>0</v>
       </c>
       <c r="O8" s="30">
@@ -2903,7 +2931,7 @@
       </c>
       <c r="P8" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q8" s="30">
         <f>SUM(Q10,Q16)</f>
@@ -2919,16 +2947,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="65">
+      <c r="A9" s="53">
         <v>1</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="51"/>
       <c r="H9" s="18" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2950,12 +2978,12 @@
       <c r="S9" s="23"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="66"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="52"/>
       <c r="H10" s="19" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2965,33 +2993,35 @@
       <c r="J10" s="19"/>
       <c r="K10" s="44">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L10" s="33"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
+      <c r="P10" s="24">
+        <v>0.5</v>
+      </c>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="65"/>
-      <c r="B11" s="67" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="53" t="s">
+      <c r="D11" s="58"/>
+      <c r="E11" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="55"/>
+      <c r="G11" s="63"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -3016,12 +3046,12 @@
       <c r="S11" s="23"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="66"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="56"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="56"/>
       <c r="H12" s="46" t="str">
         <f>IF(E11="","","実績")</f>
@@ -3047,21 +3077,21 @@
       <c r="S12" s="24"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="65"/>
-      <c r="B13" s="67" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="53" t="s">
+      <c r="D13" s="58"/>
+      <c r="E13" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="55"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -3086,12 +3116,12 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="66"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="56"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="56"/>
       <c r="H14" s="46" t="str">
         <f>IF(E13="","","実績")</f>
@@ -3105,28 +3135,30 @@
       </c>
       <c r="K14" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L14" s="33"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
+      <c r="P14" s="24">
+        <v>0.5</v>
+      </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="65">
+      <c r="A15" s="53">
         <v>2</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="51"/>
       <c r="H15" s="18" t="str">
         <f>IF(E15="","","予定")</f>
@@ -3150,12 +3182,12 @@
       <c r="S15" s="23"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="66"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
       <c r="G16" s="52"/>
       <c r="H16" s="19" t="str">
         <f>IF(E15="","","実績")</f>
@@ -3173,7 +3205,7 @@
       <c r="O16" s="49"/>
       <c r="P16" s="49"/>
       <c r="Q16" s="49">
-        <f t="shared" ref="N16:S16" si="5">SUM(Q18,Q20,Q22)</f>
+        <f t="shared" ref="Q16:S16" si="5">SUM(Q18,Q20,Q22)</f>
         <v>0</v>
       </c>
       <c r="R16" s="49">
@@ -3186,19 +3218,19 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="65"/>
-      <c r="B17" s="67" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="53" t="s">
+      <c r="D17" s="58"/>
+      <c r="E17" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="55"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3225,12 +3257,12 @@
       <c r="S17" s="23"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="66"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="56"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="56"/>
       <c r="H18" s="46" t="str">
         <f>IF(E17="","","実績")</f>
@@ -3256,19 +3288,19 @@
       <c r="S18" s="24"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="65"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="53" t="s">
+      <c r="D19" s="58"/>
+      <c r="E19" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="55"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3295,12 +3327,12 @@
       <c r="S19" s="23"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="66"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="56"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="56"/>
       <c r="H20" s="46" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3325,19 +3357,19 @@
       <c r="S20" s="24"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="65"/>
-      <c r="B21" s="67" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="53" t="s">
+      <c r="D21" s="58"/>
+      <c r="E21" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="55"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3364,12 +3396,12 @@
       <c r="S21" s="23"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="66"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="56"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="56"/>
       <c r="H22" s="46" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3395,15 +3427,15 @@
       <c r="S22" s="24"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="112"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="69"/>
       <c r="H23" s="17" t="s">
         <v>16</v>
       </c>
@@ -3427,13 +3459,13 @@
       <c r="S23" s="27"/>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="71"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="113"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="70"/>
       <c r="H24" s="7" t="s">
         <v>17</v>
       </c>
@@ -3451,7 +3483,7 @@
       <c r="O24" s="29"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="29">
-        <f t="shared" ref="M24:S24" si="6">SUM(Q26,Q36)</f>
+        <f t="shared" ref="Q24:S24" si="6">SUM(Q26,Q36)</f>
         <v>0</v>
       </c>
       <c r="R24" s="29">
@@ -3464,16 +3496,16 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="65">
+      <c r="A25" s="53">
         <v>1</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="51"/>
       <c r="H25" s="18" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3494,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="R25" s="23">
-        <f t="shared" ref="M25:R25" si="7">SUM(R27,R29,R31,R33)</f>
+        <f t="shared" ref="R25" si="7">SUM(R27,R29,R31,R33)</f>
         <v>0</v>
       </c>
       <c r="S25" s="23">
@@ -3503,12 +3535,12 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="66"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="52"/>
       <c r="H26" s="19" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3518,15 +3550,17 @@
       <c r="J26" s="19"/>
       <c r="K26" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
+      <c r="P26" s="24">
+        <v>2</v>
+      </c>
       <c r="Q26" s="24">
-        <f t="shared" ref="M26:R26" si="8">SUM(Q28,Q30,Q32,Q34)</f>
+        <f t="shared" ref="Q26:R26" si="8">SUM(Q28,Q30,Q32,Q34)</f>
         <v>0</v>
       </c>
       <c r="R26" s="24">
@@ -3539,19 +3573,19 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="65"/>
-      <c r="B27" s="67" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="53" t="s">
+      <c r="D27" s="58"/>
+      <c r="E27" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="55" t="s">
+      <c r="F27" s="61"/>
+      <c r="G27" s="63" t="s">
         <v>38</v>
       </c>
       <c r="H27" s="8" t="str">
@@ -3580,12 +3614,12 @@
       <c r="S27" s="23"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="66"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="56"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="56"/>
       <c r="H28" s="46" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3602,25 +3636,27 @@
       <c r="M28" s="39"/>
       <c r="N28" s="24"/>
       <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
+      <c r="P28" s="24">
+        <v>0.25</v>
+      </c>
       <c r="Q28" s="24"/>
       <c r="R28" s="24"/>
       <c r="S28" s="24"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="65"/>
-      <c r="B29" s="67" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="53" t="s">
+      <c r="D29" s="58"/>
+      <c r="E29" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="53"/>
-      <c r="G29" s="55"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3647,12 +3683,12 @@
       <c r="S29" s="23"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="66"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="56"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="56"/>
       <c r="H30" s="46" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3666,31 +3702,33 @@
       </c>
       <c r="K30" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L30" s="38"/>
       <c r="M30" s="39"/>
       <c r="N30" s="24"/>
       <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
+      <c r="P30" s="24">
+        <v>0.25</v>
+      </c>
       <c r="Q30" s="24"/>
       <c r="R30" s="24"/>
       <c r="S30" s="24"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="65"/>
-      <c r="B31" s="67" t="s">
+      <c r="A31" s="53"/>
+      <c r="B31" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="53" t="s">
+      <c r="D31" s="58"/>
+      <c r="E31" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="53"/>
-      <c r="G31" s="55" t="s">
+      <c r="F31" s="61"/>
+      <c r="G31" s="63" t="s">
         <v>43</v>
       </c>
       <c r="H31" s="8" t="str">
@@ -3719,12 +3757,12 @@
       <c r="S31" s="23"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="66"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="56"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="56"/>
       <c r="H32" s="46" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3738,31 +3776,33 @@
       </c>
       <c r="K32" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L32" s="38"/>
       <c r="M32" s="39"/>
       <c r="N32" s="24"/>
       <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
+      <c r="P32" s="24">
+        <v>0.25</v>
+      </c>
       <c r="Q32" s="24"/>
       <c r="R32" s="24"/>
       <c r="S32" s="24"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="65"/>
-      <c r="B33" s="67" t="s">
+      <c r="A33" s="53"/>
+      <c r="B33" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="53" t="s">
+      <c r="D33" s="58"/>
+      <c r="E33" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="55" t="s">
+      <c r="F33" s="61"/>
+      <c r="G33" s="63" t="s">
         <v>47</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3791,12 +3831,12 @@
       <c r="S33" s="23"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="66"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="56"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
       <c r="G34" s="56"/>
       <c r="H34" s="46" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3810,28 +3850,30 @@
       </c>
       <c r="K34" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L34" s="33"/>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
       <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
+      <c r="P34" s="24">
+        <v>0.25</v>
+      </c>
       <c r="Q34" s="24"/>
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="65">
+      <c r="A35" s="53">
         <v>2</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
       <c r="G35" s="51"/>
       <c r="H35" s="18" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3852,7 +3894,7 @@
         <v>2.5</v>
       </c>
       <c r="R35" s="23">
-        <f t="shared" ref="L35:R35" si="9">SUM(R37,R39,R41)</f>
+        <f t="shared" ref="R35" si="9">SUM(R37,R39,R41)</f>
         <v>0</v>
       </c>
       <c r="S35" s="23">
@@ -3861,12 +3903,12 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="66"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="52"/>
       <c r="H36" s="19" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3884,7 +3926,7 @@
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
       <c r="Q36" s="24">
-        <f t="shared" ref="L36:R36" si="10">SUM(Q38,Q40,Q42)</f>
+        <f t="shared" ref="Q36:R36" si="10">SUM(Q38,Q40,Q42)</f>
         <v>0</v>
       </c>
       <c r="R36" s="24">
@@ -3897,19 +3939,19 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="65"/>
-      <c r="B37" s="67" t="s">
+      <c r="A37" s="53"/>
+      <c r="B37" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="53" t="s">
+      <c r="D37" s="58"/>
+      <c r="E37" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="53"/>
-      <c r="G37" s="55"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3936,12 +3978,12 @@
       <c r="S37" s="23"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="66"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="56"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="56"/>
       <c r="H38" s="46" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3967,19 +4009,19 @@
       <c r="S38" s="24"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="65"/>
-      <c r="B39" s="67" t="s">
+      <c r="A39" s="53"/>
+      <c r="B39" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="53" t="s">
+      <c r="D39" s="58"/>
+      <c r="E39" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="53"/>
-      <c r="G39" s="55"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="63"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4006,12 +4048,12 @@
       <c r="S39" s="23"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="66"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="56"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="56"/>
       <c r="H40" s="46" t="str">
         <f>IF(E39="","","実績")</f>
@@ -4033,19 +4075,19 @@
       <c r="S40" s="24"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="65"/>
-      <c r="B41" s="67" t="s">
+      <c r="A41" s="53"/>
+      <c r="B41" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="53" t="s">
+      <c r="D41" s="58"/>
+      <c r="E41" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="53"/>
-      <c r="G41" s="55"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="63"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -4072,12 +4114,12 @@
       <c r="S41" s="23"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="66"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="56"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="56"/>
       <c r="H42" s="46" t="str">
         <f>IF(E41="","","実績")</f>
@@ -4103,15 +4145,15 @@
       <c r="S42" s="24"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="112"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="69"/>
       <c r="H43" s="17" t="s">
         <v>16</v>
       </c>
@@ -4129,7 +4171,7 @@
       <c r="O43" s="27"/>
       <c r="P43" s="27"/>
       <c r="Q43" s="27">
-        <f t="shared" ref="M43:S43" si="11">SUM(Q45,Q51)</f>
+        <f t="shared" ref="Q43:S43" si="11">SUM(Q45,Q51)</f>
         <v>3.5</v>
       </c>
       <c r="R43" s="27">
@@ -4142,13 +4184,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="71"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="113"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="70"/>
       <c r="H44" s="7" t="s">
         <v>17</v>
       </c>
@@ -4164,7 +4206,7 @@
       <c r="O44" s="27"/>
       <c r="P44" s="27"/>
       <c r="Q44" s="27">
-        <f t="shared" ref="M44:S44" si="12">SUM(Q46,Q52)</f>
+        <f t="shared" ref="Q44:S44" si="12">SUM(Q46,Q52)</f>
         <v>0</v>
       </c>
       <c r="R44" s="27">
@@ -4177,16 +4219,16 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="65">
+      <c r="A45" s="53">
         <v>1</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
       <c r="G45" s="51"/>
       <c r="H45" s="18" t="str">
         <f>IF(E45="","","予定")</f>
@@ -4207,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="R45" s="23">
-        <f t="shared" ref="N45:S45" si="13">SUM(R47,R49)</f>
+        <f t="shared" ref="R45:S45" si="13">SUM(R47,R49)</f>
         <v>0</v>
       </c>
       <c r="S45" s="23">
@@ -4216,12 +4258,12 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="66"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
       <c r="G46" s="52"/>
       <c r="H46" s="19" t="str">
         <f>IF(E45="","","実績")</f>
@@ -4231,15 +4273,17 @@
       <c r="J46" s="19"/>
       <c r="K46" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L46" s="48"/>
       <c r="M46" s="24"/>
       <c r="N46" s="24"/>
       <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
+      <c r="P46" s="24">
+        <v>0.5</v>
+      </c>
       <c r="Q46" s="24">
-        <f t="shared" ref="N46:S46" si="14">SUM(Q48,Q50)</f>
+        <f t="shared" ref="Q46:S46" si="14">SUM(Q48,Q50)</f>
         <v>0</v>
       </c>
       <c r="R46" s="24">
@@ -4252,19 +4296,19 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="65"/>
-      <c r="B47" s="67" t="s">
+      <c r="A47" s="53"/>
+      <c r="B47" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="53" t="s">
+      <c r="D47" s="58"/>
+      <c r="E47" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="53"/>
-      <c r="G47" s="55"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="63"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4291,12 +4335,12 @@
       <c r="S47" s="23"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="66"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="56"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
       <c r="G48" s="56"/>
       <c r="H48" s="46" t="str">
         <f>IF(E47="","","実績")</f>
@@ -4308,31 +4352,33 @@
       </c>
       <c r="K48" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L48" s="33"/>
       <c r="M48" s="24"/>
       <c r="N48" s="24"/>
       <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
+      <c r="P48" s="24">
+        <v>0.25</v>
+      </c>
       <c r="Q48" s="24"/>
       <c r="R48" s="24"/>
       <c r="S48" s="24"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="65"/>
-      <c r="B49" s="67" t="s">
+      <c r="A49" s="53"/>
+      <c r="B49" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="53" t="s">
+      <c r="D49" s="58"/>
+      <c r="E49" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="53"/>
-      <c r="G49" s="55"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="63"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4359,12 +4405,12 @@
       <c r="S49" s="23"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="66"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="56"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
       <c r="G50" s="56"/>
       <c r="H50" s="46" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4376,28 +4422,30 @@
       </c>
       <c r="K50" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L50" s="33"/>
       <c r="M50" s="24"/>
       <c r="N50" s="24"/>
       <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
+      <c r="P50" s="24">
+        <v>0.25</v>
+      </c>
       <c r="Q50" s="24"/>
       <c r="R50" s="24"/>
       <c r="S50" s="24"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="65">
+      <c r="A51" s="53">
         <v>2</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
       <c r="G51" s="51"/>
       <c r="H51" s="18" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4421,12 +4469,12 @@
       <c r="S51" s="23"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="66"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
       <c r="G52" s="52"/>
       <c r="H52" s="19" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4448,19 +4496,19 @@
       <c r="S52" s="24"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="65"/>
-      <c r="B53" s="67" t="s">
+      <c r="A53" s="53"/>
+      <c r="B53" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="53" t="s">
+      <c r="D53" s="58"/>
+      <c r="E53" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="53"/>
-      <c r="G53" s="55"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="63"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4487,12 +4535,12 @@
       <c r="S53" s="23"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="66"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="56"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
       <c r="G54" s="56"/>
       <c r="H54" s="46" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4516,19 +4564,19 @@
       <c r="S54" s="24"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="65"/>
-      <c r="B55" s="67" t="s">
+      <c r="A55" s="53"/>
+      <c r="B55" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="53" t="s">
+      <c r="D55" s="58"/>
+      <c r="E55" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="53"/>
-      <c r="G55" s="55"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="63"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4555,12 +4603,12 @@
       <c r="S55" s="23"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="66"/>
+      <c r="A56" s="54"/>
       <c r="B56" s="56"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
       <c r="G56" s="56"/>
       <c r="H56" s="46" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4582,19 +4630,19 @@
       <c r="S56" s="24"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="65"/>
-      <c r="B57" s="67" t="s">
+      <c r="A57" s="53"/>
+      <c r="B57" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="53" t="s">
+      <c r="D57" s="58"/>
+      <c r="E57" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="53"/>
-      <c r="G57" s="55"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="63"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4621,12 +4669,12 @@
       <c r="S57" s="23"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="66"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="56"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
       <c r="G58" s="56"/>
       <c r="H58" s="46" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4650,15 +4698,15 @@
       <c r="S58" s="35"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="68" t="s">
+      <c r="A59" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="112"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="69"/>
       <c r="H59" s="17" t="s">
         <v>16</v>
       </c>
@@ -4682,13 +4730,13 @@
       <c r="S59" s="27"/>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="71"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="113"/>
+      <c r="A60" s="74"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="70"/>
       <c r="H60" s="7" t="s">
         <v>17</v>
       </c>
@@ -4708,16 +4756,16 @@
       <c r="S60" s="28"/>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="65">
+      <c r="A61" s="53">
         <v>1</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="60"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
       <c r="G61" s="51"/>
       <c r="H61" s="18" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4744,12 +4792,12 @@
       <c r="S61" s="23"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="66"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
       <c r="G62" s="52"/>
       <c r="H62" s="19" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4771,19 +4819,19 @@
       <c r="S62" s="24"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="65"/>
-      <c r="B63" s="67" t="s">
+      <c r="A63" s="53"/>
+      <c r="B63" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="53" t="s">
+      <c r="D63" s="58"/>
+      <c r="E63" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F63" s="53"/>
-      <c r="G63" s="55"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="63"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4810,12 +4858,12 @@
       <c r="S63" s="23"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="66"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="56"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
       <c r="G64" s="56"/>
       <c r="H64" s="46" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4825,31 +4873,33 @@
       <c r="J64" s="46"/>
       <c r="K64" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L64" s="33"/>
       <c r="M64" s="24"/>
       <c r="N64" s="24"/>
       <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
+      <c r="P64" s="24">
+        <v>2</v>
+      </c>
       <c r="Q64" s="24"/>
       <c r="R64" s="24"/>
       <c r="S64" s="24"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="65"/>
-      <c r="B65" s="67" t="s">
+      <c r="A65" s="53"/>
+      <c r="B65" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="53" t="s">
+      <c r="D65" s="58"/>
+      <c r="E65" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F65" s="53"/>
-      <c r="G65" s="55"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="63"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4876,12 +4926,12 @@
       <c r="S65" s="23"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="66"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="56"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="56"/>
       <c r="H66" s="46" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4891,31 +4941,35 @@
       <c r="J66" s="46"/>
       <c r="K66" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L66" s="33"/>
       <c r="M66" s="24"/>
       <c r="N66" s="24"/>
       <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
+      <c r="P66" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="24">
+        <v>2</v>
+      </c>
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="65"/>
-      <c r="B67" s="67" t="s">
+      <c r="A67" s="53"/>
+      <c r="B67" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="59" t="s">
+      <c r="C67" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D67" s="61"/>
-      <c r="E67" s="53" t="s">
+      <c r="D67" s="58"/>
+      <c r="E67" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="53"/>
-      <c r="G67" s="55"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="63"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4942,12 +4996,12 @@
       <c r="S67" s="23"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="66"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="56"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
       <c r="G68" s="56"/>
       <c r="H68" s="46" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4969,16 +5023,16 @@
       <c r="S68" s="24"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="65">
+      <c r="A69" s="53">
         <v>2</v>
       </c>
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="57"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
       <c r="G69" s="51"/>
       <c r="H69" s="18" t="str">
         <f>IF(E69="","","予定")</f>
@@ -5002,12 +5056,12 @@
       <c r="S69" s="23"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="66"/>
-      <c r="B70" s="62"/>
-      <c r="C70" s="63"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="68"/>
       <c r="G70" s="52"/>
       <c r="H70" s="19" t="str">
         <f>IF(E69="","","実績")</f>
@@ -5029,19 +5083,19 @@
       <c r="S70" s="24"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="65"/>
-      <c r="B71" s="67" t="s">
+      <c r="A71" s="53"/>
+      <c r="B71" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D71" s="61"/>
-      <c r="E71" s="53" t="s">
+      <c r="D71" s="58"/>
+      <c r="E71" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F71" s="53"/>
-      <c r="G71" s="55" t="s">
+      <c r="F71" s="61"/>
+      <c r="G71" s="63" t="s">
         <v>56</v>
       </c>
       <c r="H71" s="8" t="str">
@@ -5070,12 +5124,12 @@
       <c r="S71" s="23"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="66"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="56"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
       <c r="G72" s="56"/>
       <c r="H72" s="46" t="str">
         <f>IF(E71="","","実績")</f>
@@ -5097,19 +5151,19 @@
       <c r="S72" s="24"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="65"/>
-      <c r="B73" s="67" t="s">
+      <c r="A73" s="53"/>
+      <c r="B73" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="59" t="s">
+      <c r="C73" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="61"/>
-      <c r="E73" s="53" t="s">
+      <c r="D73" s="58"/>
+      <c r="E73" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="53"/>
-      <c r="G73" s="55"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="63"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5136,12 +5190,12 @@
       <c r="S73" s="23"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="66"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="56"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
       <c r="G74" s="56"/>
       <c r="H74" s="46" t="str">
         <f>IF(E73="","","実績")</f>
@@ -5163,19 +5217,19 @@
       <c r="S74" s="24"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="65"/>
-      <c r="B75" s="67" t="s">
+      <c r="A75" s="53"/>
+      <c r="B75" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="59" t="s">
+      <c r="C75" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="61"/>
-      <c r="E75" s="53" t="s">
+      <c r="D75" s="58"/>
+      <c r="E75" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F75" s="53"/>
-      <c r="G75" s="55"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="63"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5202,12 +5256,12 @@
       <c r="S75" s="23"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="66"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="56"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
       <c r="G76" s="56"/>
       <c r="H76" s="46" t="str">
         <f>IF(E75="","","実績")</f>
@@ -5229,15 +5283,15 @@
       <c r="S76" s="35"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="68" t="s">
+      <c r="A77" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="B77" s="69"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="112"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="69"/>
       <c r="H77" s="17" t="s">
         <v>16</v>
       </c>
@@ -5263,13 +5317,13 @@
       <c r="S77" s="27"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="71"/>
-      <c r="B78" s="72"/>
-      <c r="C78" s="72"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="75"/>
-      <c r="F78" s="75"/>
-      <c r="G78" s="113"/>
+      <c r="A78" s="74"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="78"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="70"/>
       <c r="H78" s="7" t="s">
         <v>17</v>
       </c>
@@ -5289,16 +5343,16 @@
       <c r="S78" s="28"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="65">
+      <c r="A79" s="53">
         <v>1</v>
       </c>
-      <c r="B79" s="59" t="s">
+      <c r="B79" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="60"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
       <c r="G79" s="51"/>
       <c r="H79" s="18" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5322,12 +5376,12 @@
       <c r="S79" s="23"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="66"/>
-      <c r="B80" s="62"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="58"/>
+      <c r="A80" s="54"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
       <c r="G80" s="52"/>
       <c r="H80" s="19" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5337,31 +5391,33 @@
       <c r="J80" s="19"/>
       <c r="K80" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L80" s="33"/>
       <c r="M80" s="24"/>
       <c r="N80" s="24"/>
       <c r="O80" s="24"/>
       <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
+      <c r="Q80" s="24">
+        <v>4</v>
+      </c>
       <c r="R80" s="24"/>
       <c r="S80" s="24"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="65"/>
-      <c r="B81" s="67" t="s">
+      <c r="A81" s="53"/>
+      <c r="B81" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C81" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D81" s="61"/>
-      <c r="E81" s="53" t="s">
+      <c r="D81" s="58"/>
+      <c r="E81" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F81" s="53"/>
-      <c r="G81" s="55"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="63"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5390,12 +5446,12 @@
       <c r="S81" s="23"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="66"/>
+      <c r="A82" s="54"/>
       <c r="B82" s="56"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="54"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
       <c r="G82" s="56"/>
       <c r="H82" s="46" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5417,19 +5473,19 @@
       <c r="S82" s="24"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="65"/>
-      <c r="B83" s="67" t="s">
+      <c r="A83" s="53"/>
+      <c r="B83" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="59" t="s">
+      <c r="C83" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D83" s="61"/>
-      <c r="E83" s="53" t="s">
+      <c r="D83" s="58"/>
+      <c r="E83" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F83" s="53"/>
-      <c r="G83" s="55"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="63"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5456,12 +5512,12 @@
       <c r="S83" s="23"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="66"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="56"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="54"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="62"/>
       <c r="G84" s="56"/>
       <c r="H84" s="46" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5483,15 +5539,15 @@
       <c r="S84" s="24"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="68" t="s">
+      <c r="A85" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="B85" s="69"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="74"/>
-      <c r="G85" s="112"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="73"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="69"/>
       <c r="H85" s="17" t="s">
         <v>16</v>
       </c>
@@ -5515,13 +5571,13 @@
       <c r="S85" s="27"/>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="71"/>
-      <c r="B86" s="72"/>
-      <c r="C86" s="72"/>
-      <c r="D86" s="73"/>
-      <c r="E86" s="75"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="113"/>
+      <c r="A86" s="74"/>
+      <c r="B86" s="75"/>
+      <c r="C86" s="75"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="78"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="70"/>
       <c r="H86" s="7" t="s">
         <v>17</v>
       </c>
@@ -5541,16 +5597,16 @@
       <c r="S86" s="28"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="65">
+      <c r="A87" s="53">
         <v>1</v>
       </c>
-      <c r="B87" s="59" t="s">
+      <c r="B87" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="60"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="57"/>
+      <c r="C87" s="65"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
       <c r="G87" s="51"/>
       <c r="H87" s="18" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5574,12 +5630,12 @@
       <c r="S87" s="23"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="66"/>
-      <c r="B88" s="62"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
+      <c r="A88" s="54"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="68"/>
+      <c r="F88" s="68"/>
       <c r="G88" s="52"/>
       <c r="H88" s="19" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5601,19 +5657,19 @@
       <c r="S88" s="24"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="65"/>
-      <c r="B89" s="67" t="s">
+      <c r="A89" s="53"/>
+      <c r="B89" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="59" t="s">
+      <c r="C89" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D89" s="61"/>
-      <c r="E89" s="53" t="s">
+      <c r="D89" s="58"/>
+      <c r="E89" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F89" s="53"/>
-      <c r="G89" s="55"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="63"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5640,12 +5696,12 @@
       <c r="S89" s="23"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="66"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="56"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="54"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="62"/>
       <c r="G90" s="56"/>
       <c r="H90" s="46" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5667,19 +5723,19 @@
       <c r="S90" s="24"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="65"/>
-      <c r="B91" s="67" t="s">
+      <c r="A91" s="53"/>
+      <c r="B91" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="118" t="s">
+      <c r="C91" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D91" s="61"/>
-      <c r="E91" s="53" t="s">
+      <c r="D91" s="58"/>
+      <c r="E91" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F91" s="53"/>
-      <c r="G91" s="55"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="63"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5706,12 +5762,12 @@
       <c r="S91" s="23"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="66"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="56"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="54"/>
-      <c r="F92" s="54"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
       <c r="G92" s="56"/>
       <c r="H92" s="46" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5733,16 +5789,16 @@
       <c r="S92" s="24"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="65">
+      <c r="A93" s="53">
         <v>2</v>
       </c>
-      <c r="B93" s="59" t="s">
+      <c r="B93" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="60"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="57"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
       <c r="G93" s="51"/>
       <c r="H93" s="18" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5766,12 +5822,12 @@
       <c r="S93" s="23"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="66"/>
-      <c r="B94" s="62"/>
-      <c r="C94" s="63"/>
-      <c r="D94" s="64"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
+      <c r="A94" s="54"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="68"/>
+      <c r="F94" s="68"/>
       <c r="G94" s="52"/>
       <c r="H94" s="19" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5793,19 +5849,19 @@
       <c r="S94" s="24"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="65"/>
-      <c r="B95" s="67" t="s">
+      <c r="A95" s="53"/>
+      <c r="B95" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C95" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D95" s="61"/>
-      <c r="E95" s="53" t="s">
+      <c r="D95" s="58"/>
+      <c r="E95" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F95" s="53"/>
-      <c r="G95" s="55"/>
+      <c r="F95" s="61"/>
+      <c r="G95" s="63"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5832,12 +5888,12 @@
       <c r="S95" s="23"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="66"/>
+      <c r="A96" s="54"/>
       <c r="B96" s="56"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="54"/>
-      <c r="F96" s="54"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="62"/>
       <c r="G96" s="56"/>
       <c r="H96" s="46" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5859,19 +5915,19 @@
       <c r="S96" s="24"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="65"/>
-      <c r="B97" s="67" t="s">
+      <c r="A97" s="53"/>
+      <c r="B97" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="59" t="s">
+      <c r="C97" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D97" s="61"/>
-      <c r="E97" s="53" t="s">
+      <c r="D97" s="58"/>
+      <c r="E97" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F97" s="53"/>
-      <c r="G97" s="55"/>
+      <c r="F97" s="61"/>
+      <c r="G97" s="63"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5898,12 +5954,12 @@
       <c r="S97" s="23"/>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="66"/>
+      <c r="A98" s="54"/>
       <c r="B98" s="56"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="54"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="62"/>
+      <c r="F98" s="62"/>
       <c r="G98" s="56"/>
       <c r="H98" s="46" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5925,15 +5981,15 @@
       <c r="S98" s="35"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="68" t="s">
+      <c r="A99" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B99" s="69"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="74"/>
-      <c r="G99" s="112"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="69"/>
       <c r="H99" s="17" t="s">
         <v>16</v>
       </c>
@@ -5957,13 +6013,13 @@
       <c r="S99" s="27"/>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="71"/>
-      <c r="B100" s="72"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="73"/>
-      <c r="E100" s="75"/>
-      <c r="F100" s="75"/>
-      <c r="G100" s="113"/>
+      <c r="A100" s="74"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="78"/>
+      <c r="F100" s="78"/>
+      <c r="G100" s="70"/>
       <c r="H100" s="7" t="s">
         <v>17</v>
       </c>
@@ -5983,16 +6039,16 @@
       <c r="S100" s="29"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="65">
+      <c r="A101" s="53">
         <v>1</v>
       </c>
-      <c r="B101" s="59" t="s">
+      <c r="B101" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="60"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="57"/>
-      <c r="F101" s="57"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
       <c r="G101" s="51"/>
       <c r="H101" s="18" t="str">
         <f>IF(E101="","","予定")</f>
@@ -6016,12 +6072,12 @@
       <c r="S101" s="23"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="66"/>
-      <c r="B102" s="62"/>
-      <c r="C102" s="63"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="58"/>
-      <c r="F102" s="58"/>
+      <c r="A102" s="54"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="68"/>
+      <c r="F102" s="68"/>
       <c r="G102" s="52"/>
       <c r="H102" s="19" t="str">
         <f>IF(E101="","","実績")</f>
@@ -6043,19 +6099,19 @@
       <c r="S102" s="24"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="65"/>
-      <c r="B103" s="67" t="s">
+      <c r="A103" s="53"/>
+      <c r="B103" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C103" s="59" t="s">
+      <c r="C103" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="D103" s="61"/>
-      <c r="E103" s="53" t="s">
+      <c r="D103" s="58"/>
+      <c r="E103" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F103" s="53"/>
-      <c r="G103" s="55"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="63"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6082,12 +6138,12 @@
       <c r="S103" s="23"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="66"/>
+      <c r="A104" s="54"/>
       <c r="B104" s="56"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="64"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="62"/>
+      <c r="F104" s="62"/>
       <c r="G104" s="56"/>
       <c r="H104" s="46" t="str">
         <f>IF(E103="","","実績")</f>
@@ -6109,19 +6165,19 @@
       <c r="S104" s="24"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="65"/>
-      <c r="B105" s="67" t="s">
+      <c r="A105" s="53"/>
+      <c r="B105" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="59" t="s">
+      <c r="C105" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D105" s="61"/>
-      <c r="E105" s="53" t="s">
+      <c r="D105" s="58"/>
+      <c r="E105" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F105" s="53"/>
-      <c r="G105" s="55"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="63"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6148,12 +6204,12 @@
       <c r="S105" s="23"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="66"/>
+      <c r="A106" s="54"/>
       <c r="B106" s="56"/>
-      <c r="C106" s="62"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="54"/>
-      <c r="F106" s="54"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="62"/>
       <c r="G106" s="56"/>
       <c r="H106" s="46" t="str">
         <f>IF(E105="","","実績")</f>
@@ -6175,16 +6231,16 @@
       <c r="S106" s="24"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="65">
+      <c r="A107" s="53">
         <v>2</v>
       </c>
-      <c r="B107" s="59" t="s">
+      <c r="B107" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C107" s="60"/>
-      <c r="D107" s="61"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
+      <c r="C107" s="65"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="67"/>
       <c r="G107" s="51"/>
       <c r="H107" s="18" t="str">
         <f>IF(E107="","","予定")</f>
@@ -6208,12 +6264,12 @@
       <c r="S107" s="23"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="66"/>
-      <c r="B108" s="62"/>
-      <c r="C108" s="63"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="58"/>
+      <c r="A108" s="54"/>
+      <c r="B108" s="59"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="68"/>
+      <c r="F108" s="68"/>
       <c r="G108" s="52"/>
       <c r="H108" s="19" t="str">
         <f>IF(E107="","","実績")</f>
@@ -6235,19 +6291,19 @@
       <c r="S108" s="24"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="65"/>
-      <c r="B109" s="67" t="s">
+      <c r="A109" s="53"/>
+      <c r="B109" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="59" t="s">
+      <c r="C109" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D109" s="61"/>
-      <c r="E109" s="53" t="s">
+      <c r="D109" s="58"/>
+      <c r="E109" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F109" s="53"/>
-      <c r="G109" s="55"/>
+      <c r="F109" s="61"/>
+      <c r="G109" s="63"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6274,12 +6330,12 @@
       <c r="S109" s="23"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="66"/>
+      <c r="A110" s="54"/>
       <c r="B110" s="56"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="54"/>
-      <c r="F110" s="54"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="62"/>
+      <c r="F110" s="62"/>
       <c r="G110" s="56"/>
       <c r="H110" s="46" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6301,19 +6357,19 @@
       <c r="S110" s="24"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="65"/>
-      <c r="B111" s="67" t="s">
+      <c r="A111" s="53"/>
+      <c r="B111" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="59" t="s">
+      <c r="C111" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D111" s="61"/>
-      <c r="E111" s="53" t="s">
+      <c r="D111" s="58"/>
+      <c r="E111" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F111" s="53"/>
-      <c r="G111" s="55"/>
+      <c r="F111" s="61"/>
+      <c r="G111" s="63"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -6340,12 +6396,12 @@
       <c r="S111" s="23"/>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="66"/>
+      <c r="A112" s="54"/>
       <c r="B112" s="56"/>
-      <c r="C112" s="62"/>
-      <c r="D112" s="64"/>
-      <c r="E112" s="54"/>
-      <c r="F112" s="54"/>
+      <c r="C112" s="59"/>
+      <c r="D112" s="60"/>
+      <c r="E112" s="62"/>
+      <c r="F112" s="62"/>
       <c r="G112" s="56"/>
       <c r="H112" s="46" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6382,95 +6438,208 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
@@ -6495,304 +6664,215 @@
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L9:S18 L27:S36">
-    <cfRule type="expression" dxfId="29" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="45" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="46" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L45:S58">
-    <cfRule type="expression" dxfId="27" priority="33" stopIfTrue="1">
+  <conditionalFormatting sqref="L45:S45 L47:S47 L46:O46 Q46:S46 L49:S49 L48:O48 Q48:S48 L51:S58 L50:O50 Q50:S50">
+    <cfRule type="expression" dxfId="31" priority="43" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="44" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:S20">
-    <cfRule type="expression" dxfId="25" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="41" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="42" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61:S64 L67:S68 L69:L76 N76:S76 O69:S75">
-    <cfRule type="expression" dxfId="23" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="39" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L61), L61&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="40" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L61), L61&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L79:S84">
-    <cfRule type="expression" dxfId="21" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="37" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L79), L79&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="38" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L79), L79&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:S22">
-    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="33" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L21), L21&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="34" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L21), L21&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:S38 L41:S42">
-    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="27" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L37), L37&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="28" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L37), L37&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:S40">
-    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L39), L39&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="26" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L39), L39&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65:S66">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="23" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L65), L65&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="24" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L65), L65&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M69:M76">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(M69), M69&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(M69), M69&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N69:N75">
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(N69), N69&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(N69), N69&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:S26">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L25), L25&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L25), L25&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P46">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(P46), P46&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(P46), P46&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P48">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(P48), P48&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(P48), P48&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P50">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(P50), P50&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(P50), P50&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -7002,18 +7082,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7035,18 +7115,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/第三反復/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/第三反復/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D66B9F-104D-4B68-AFDD-FEDD97490385}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBEAD9B-2D9D-4DE9-8703-7FE7D0D99775}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="15" windowWidth="19680" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02_SHOCK" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="77">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -678,7 +678,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0..25</t>
+    <t>秀田、大石</t>
+    <rPh sb="0" eb="2">
+      <t>ヒデタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秀田、大石</t>
+    <rPh sb="3" eb="5">
+      <t>オオイシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1711,6 +1721,42 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1720,228 +1766,164 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -2629,10 +2611,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S83" sqref="S83"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2651,120 +2633,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="79" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="88" t="s">
+      <c r="K1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="109">
+      <c r="L1" s="76">
         <v>43992</v>
       </c>
-      <c r="M1" s="110"/>
-      <c r="N1" s="109">
+      <c r="M1" s="77"/>
+      <c r="N1" s="76">
         <v>43993</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="109">
+      <c r="O1" s="77"/>
+      <c r="P1" s="76">
         <v>43994</v>
       </c>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="109">
+      <c r="Q1" s="77"/>
+      <c r="R1" s="76">
         <v>43997</v>
       </c>
-      <c r="S1" s="110"/>
+      <c r="S1" s="77"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="113" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="112"/>
-      <c r="N2" s="111" t="s">
+      <c r="M2" s="79"/>
+      <c r="N2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="111"/>
-      <c r="P2" s="114" t="s">
+      <c r="O2" s="78"/>
+      <c r="P2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="111" t="s">
+      <c r="Q2" s="79"/>
+      <c r="R2" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="112"/>
+      <c r="S2" s="79"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="95"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="117" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="116"/>
-      <c r="N3" s="115" t="s">
+      <c r="M3" s="83"/>
+      <c r="N3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="116"/>
-      <c r="P3" s="115" t="s">
+      <c r="O3" s="83"/>
+      <c r="P3" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="118" t="s">
+      <c r="Q3" s="83"/>
+      <c r="R3" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="118"/>
+      <c r="S3" s="85"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="96"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="90"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="88"/>
       <c r="L4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2791,15 +2773,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="84"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="13" t="s">
         <v>16</v>
       </c>
@@ -2834,13 +2816,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="85"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="15" t="s">
         <v>17</v>
       </c>
@@ -2859,25 +2841,27 @@
       </c>
       <c r="P6" s="37">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q6" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="37"/>
+        <v>15</v>
+      </c>
+      <c r="R6" s="37">
+        <f>SUM(R8,R24,R44,R60,R78,R100)</f>
+        <v>3</v>
+      </c>
       <c r="S6" s="37"/>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="106"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="4" t="s">
         <v>16</v>
       </c>
@@ -2901,13 +2885,13 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="107"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="110"/>
       <c r="H8" s="6" t="s">
         <v>17</v>
       </c>
@@ -2917,7 +2901,7 @@
       </c>
       <c r="K8" s="44">
         <f t="shared" ref="K8:K10" si="2">SUM(L8:S8)</f>
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
@@ -2935,7 +2919,7 @@
       </c>
       <c r="Q8" s="30">
         <f>SUM(Q10,Q16)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R8" s="30">
         <f t="shared" si="3"/>
@@ -2947,16 +2931,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="53">
+      <c r="A9" s="65">
         <v>1</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="51"/>
       <c r="H9" s="18" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2978,12 +2962,12 @@
       <c r="S9" s="23"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="54"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="52"/>
       <c r="H10" s="19" t="str">
         <f>IF(E9="","","実績")</f>
@@ -3007,21 +2991,21 @@
       <c r="S10" s="24"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="61" t="s">
+      <c r="D11" s="61"/>
+      <c r="E11" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="63"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -3046,12 +3030,12 @@
       <c r="S11" s="23"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="54"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="56"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="56"/>
       <c r="H12" s="46" t="str">
         <f>IF(E11="","","実績")</f>
@@ -3077,21 +3061,21 @@
       <c r="S12" s="24"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
-      <c r="B13" s="55" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="61" t="s">
+      <c r="D13" s="61"/>
+      <c r="E13" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="63"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -3116,12 +3100,12 @@
       <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="54"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="56"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="56"/>
       <c r="H14" s="46" t="str">
         <f>IF(E13="","","実績")</f>
@@ -3149,16 +3133,16 @@
       <c r="S14" s="24"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="53">
+      <c r="A15" s="65">
         <v>2</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="51"/>
       <c r="H15" s="18" t="str">
         <f>IF(E15="","","予定")</f>
@@ -3182,12 +3166,12 @@
       <c r="S15" s="23"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="54"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="52"/>
       <c r="H16" s="19" t="str">
         <f>IF(E15="","","実績")</f>
@@ -3197,7 +3181,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="9">
         <f>SUM(L16:S16)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="22"/>
       <c r="M16" s="49"/>
@@ -3206,7 +3190,7 @@
       <c r="P16" s="49"/>
       <c r="Q16" s="49">
         <f t="shared" ref="Q16:S16" si="5">SUM(Q18,Q20,Q22)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R16" s="49">
         <f t="shared" si="5"/>
@@ -3218,19 +3202,19 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="61" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="61"/>
-      <c r="G17" s="63"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3257,12 +3241,12 @@
       <c r="S17" s="23"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="54"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="56"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="56"/>
       <c r="H18" s="46" t="str">
         <f>IF(E17="","","実績")</f>
@@ -3276,31 +3260,33 @@
       </c>
       <c r="K18" s="9">
         <f>SUM(L18:S18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="33"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
+      <c r="Q18" s="24">
+        <v>1</v>
+      </c>
       <c r="R18" s="24"/>
       <c r="S18" s="24"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
-      <c r="B19" s="55" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="61" t="s">
+      <c r="D19" s="61"/>
+      <c r="E19" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="63"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3327,12 +3313,12 @@
       <c r="S19" s="23"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="54"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="56"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="56"/>
       <c r="H20" s="46" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3345,31 +3331,33 @@
         <v>5</v>
       </c>
       <c r="K20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="33"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
+      <c r="Q20" s="24">
+        <v>1</v>
+      </c>
       <c r="R20" s="24"/>
       <c r="S20" s="24"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="53"/>
-      <c r="B21" s="55" t="s">
+      <c r="A21" s="65"/>
+      <c r="B21" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="61" t="s">
+      <c r="D21" s="61"/>
+      <c r="E21" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="61"/>
-      <c r="G21" s="63"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3396,12 +3384,12 @@
       <c r="S21" s="23"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="54"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="56"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="56"/>
       <c r="H22" s="46" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3415,27 +3403,29 @@
       </c>
       <c r="K22" s="9">
         <f>SUM(L22:S22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="33"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
+      <c r="Q22" s="24">
+        <v>1</v>
+      </c>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="112"/>
       <c r="H23" s="17" t="s">
         <v>16</v>
       </c>
@@ -3459,13 +3449,13 @@
       <c r="S23" s="27"/>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="74"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="70"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="113"/>
       <c r="H24" s="7" t="s">
         <v>17</v>
       </c>
@@ -3475,20 +3465,22 @@
       </c>
       <c r="K24" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L24" s="50"/>
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
       <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
+      <c r="P24" s="29">
+        <v>3</v>
+      </c>
       <c r="Q24" s="29">
         <f t="shared" ref="Q24:S24" si="6">SUM(Q26,Q36)</f>
         <v>0</v>
       </c>
       <c r="R24" s="29">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S24" s="29">
         <f t="shared" si="6"/>
@@ -3496,16 +3488,16 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="53">
+      <c r="A25" s="65">
         <v>1</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="51"/>
       <c r="H25" s="18" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3535,12 +3527,12 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="54"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="52"/>
       <c r="H26" s="19" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3573,19 +3565,19 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="53"/>
-      <c r="B27" s="55" t="s">
+      <c r="A27" s="65"/>
+      <c r="B27" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="61" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="63" t="s">
+      <c r="F27" s="53"/>
+      <c r="G27" s="55" t="s">
         <v>38</v>
       </c>
       <c r="H27" s="8" t="str">
@@ -3614,12 +3606,12 @@
       <c r="S27" s="23"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="54"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="56"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="56"/>
       <c r="H28" s="46" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3631,7 +3623,9 @@
       <c r="J28" s="8">
         <v>1</v>
       </c>
-      <c r="K28" s="9"/>
+      <c r="K28" s="9">
+        <v>0.25</v>
+      </c>
       <c r="L28" s="38"/>
       <c r="M28" s="39"/>
       <c r="N28" s="24"/>
@@ -3644,19 +3638,19 @@
       <c r="S28" s="24"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="53"/>
-      <c r="B29" s="55" t="s">
+      <c r="A29" s="65"/>
+      <c r="B29" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="61" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="63"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="55"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3669,26 +3663,26 @@
       </c>
       <c r="K29" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
       <c r="P29" s="23"/>
-      <c r="Q29" s="23" t="s">
-        <v>75</v>
+      <c r="Q29" s="23">
+        <v>0.25</v>
       </c>
       <c r="R29" s="23"/>
       <c r="S29" s="23"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="54"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="56"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="56"/>
       <c r="H30" s="46" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3716,19 +3710,19 @@
       <c r="S30" s="24"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="53"/>
-      <c r="B31" s="55" t="s">
+      <c r="A31" s="65"/>
+      <c r="B31" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="61" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="61"/>
-      <c r="G31" s="63" t="s">
+      <c r="F31" s="53"/>
+      <c r="G31" s="55" t="s">
         <v>43</v>
       </c>
       <c r="H31" s="8" t="str">
@@ -3757,12 +3751,12 @@
       <c r="S31" s="23"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="54"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="56"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="56"/>
       <c r="H32" s="46" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3790,19 +3784,19 @@
       <c r="S32" s="24"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="53"/>
-      <c r="B33" s="55" t="s">
+      <c r="A33" s="65"/>
+      <c r="B33" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="61" t="s">
+      <c r="D33" s="61"/>
+      <c r="E33" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="63" t="s">
+      <c r="F33" s="53"/>
+      <c r="G33" s="55" t="s">
         <v>47</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3831,12 +3825,12 @@
       <c r="S33" s="23"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="54"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="56"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
       <c r="G34" s="56"/>
       <c r="H34" s="46" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3864,16 +3858,16 @@
       <c r="S34" s="24"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="53">
+      <c r="A35" s="65">
         <v>2</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="51"/>
       <c r="H35" s="18" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3903,12 +3897,12 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="54"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="52"/>
       <c r="H36" s="19" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3918,7 +3912,7 @@
       <c r="J36" s="19"/>
       <c r="K36" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
@@ -3931,7 +3925,7 @@
       </c>
       <c r="R36" s="24">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S36" s="24">
         <f>SUM(S38,S40,S42)</f>
@@ -3939,19 +3933,19 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="53"/>
-      <c r="B37" s="55" t="s">
+      <c r="A37" s="65"/>
+      <c r="B37" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="61" t="s">
+      <c r="D37" s="61"/>
+      <c r="E37" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="61"/>
-      <c r="G37" s="63"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="55"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3978,26 +3972,26 @@
       <c r="S37" s="23"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="54"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="56"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
       <c r="G38" s="56"/>
       <c r="H38" s="46" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I38" s="46" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="J38" s="46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="33"/>
       <c r="M38" s="41"/>
@@ -4005,23 +3999,25 @@
       <c r="O38" s="24"/>
       <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
+      <c r="R38" s="24">
+        <v>1</v>
+      </c>
       <c r="S38" s="24"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="53"/>
-      <c r="B39" s="55" t="s">
+      <c r="A39" s="65"/>
+      <c r="B39" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="61" t="s">
+      <c r="D39" s="61"/>
+      <c r="E39" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="61"/>
-      <c r="G39" s="63"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4048,22 +4044,26 @@
       <c r="S39" s="23"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="54"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="56"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
       <c r="G40" s="56"/>
       <c r="H40" s="46" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
+      <c r="I40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="8">
+        <v>5</v>
+      </c>
       <c r="K40" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="38"/>
       <c r="M40" s="40"/>
@@ -4071,23 +4071,25 @@
       <c r="O40" s="24"/>
       <c r="P40" s="24"/>
       <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
+      <c r="R40" s="24">
+        <v>1</v>
+      </c>
       <c r="S40" s="24"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="53"/>
-      <c r="B41" s="55" t="s">
+      <c r="A41" s="65"/>
+      <c r="B41" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="61" t="s">
+      <c r="D41" s="61"/>
+      <c r="E41" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="61"/>
-      <c r="G41" s="63"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="55"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -4114,12 +4116,12 @@
       <c r="S41" s="23"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="54"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="56"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
       <c r="G42" s="56"/>
       <c r="H42" s="46" t="str">
         <f>IF(E41="","","実績")</f>
@@ -4133,7 +4135,7 @@
       </c>
       <c r="K42" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L42" s="38"/>
       <c r="M42" s="40"/>
@@ -4141,19 +4143,21 @@
       <c r="O42" s="24"/>
       <c r="P42" s="24"/>
       <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
+      <c r="R42" s="24">
+        <v>0.5</v>
+      </c>
       <c r="S42" s="24"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="112"/>
       <c r="H43" s="17" t="s">
         <v>16</v>
       </c>
@@ -4184,13 +4188,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="74"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="70"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="113"/>
       <c r="H44" s="7" t="s">
         <v>17</v>
       </c>
@@ -4198,13 +4202,15 @@
       <c r="J44" s="7"/>
       <c r="K44" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="27"/>
       <c r="M44" s="27"/>
       <c r="N44" s="27"/>
       <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
+      <c r="P44" s="27">
+        <v>1</v>
+      </c>
       <c r="Q44" s="27">
         <f t="shared" ref="Q44:S44" si="12">SUM(Q46,Q52)</f>
         <v>0</v>
@@ -4219,16 +4225,16 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="53">
+      <c r="A45" s="65">
         <v>1</v>
       </c>
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
       <c r="G45" s="51"/>
       <c r="H45" s="18" t="str">
         <f>IF(E45="","","予定")</f>
@@ -4258,12 +4264,12 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="54"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="52"/>
       <c r="H46" s="19" t="str">
         <f>IF(E45="","","実績")</f>
@@ -4296,19 +4302,19 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="53"/>
-      <c r="B47" s="55" t="s">
+      <c r="A47" s="65"/>
+      <c r="B47" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="61" t="s">
+      <c r="D47" s="61"/>
+      <c r="E47" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="61"/>
-      <c r="G47" s="63"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="55"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4335,18 +4341,20 @@
       <c r="S47" s="23"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="54"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="56"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
       <c r="G48" s="56"/>
       <c r="H48" s="46" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I48" s="46"/>
+      <c r="I48" s="46" t="s">
+        <v>75</v>
+      </c>
       <c r="J48" s="46">
         <v>2</v>
       </c>
@@ -4366,19 +4374,19 @@
       <c r="S48" s="24"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="53"/>
-      <c r="B49" s="55" t="s">
+      <c r="A49" s="65"/>
+      <c r="B49" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="58"/>
-      <c r="E49" s="61" t="s">
+      <c r="D49" s="61"/>
+      <c r="E49" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="61"/>
-      <c r="G49" s="63"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="55"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4405,18 +4413,20 @@
       <c r="S49" s="23"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="54"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="56"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
       <c r="G50" s="56"/>
       <c r="H50" s="46" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I50" s="46"/>
+      <c r="I50" s="46" t="s">
+        <v>76</v>
+      </c>
       <c r="J50" s="46">
         <v>2</v>
       </c>
@@ -4436,16 +4446,16 @@
       <c r="S50" s="24"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="53">
+      <c r="A51" s="65">
         <v>2</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
       <c r="G51" s="51"/>
       <c r="H51" s="18" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4469,12 +4479,12 @@
       <c r="S51" s="23"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="54"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
       <c r="G52" s="52"/>
       <c r="H52" s="19" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4496,19 +4506,19 @@
       <c r="S52" s="24"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="53"/>
-      <c r="B53" s="55" t="s">
+      <c r="A53" s="65"/>
+      <c r="B53" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="57" t="s">
+      <c r="C53" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="58"/>
-      <c r="E53" s="61" t="s">
+      <c r="D53" s="61"/>
+      <c r="E53" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="61"/>
-      <c r="G53" s="63"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="55"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4535,18 +4545,20 @@
       <c r="S53" s="23"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="54"/>
+      <c r="A54" s="66"/>
       <c r="B54" s="56"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
       <c r="G54" s="56"/>
       <c r="H54" s="46" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I54" s="46"/>
+      <c r="I54" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J54" s="46">
         <v>5</v>
       </c>
@@ -4564,19 +4576,19 @@
       <c r="S54" s="24"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="53"/>
-      <c r="B55" s="55" t="s">
+      <c r="A55" s="65"/>
+      <c r="B55" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="57" t="s">
+      <c r="C55" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="58"/>
-      <c r="E55" s="61" t="s">
+      <c r="D55" s="61"/>
+      <c r="E55" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="61"/>
-      <c r="G55" s="63"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="55"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4603,19 +4615,23 @@
       <c r="S55" s="23"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="54"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="56"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
       <c r="G56" s="56"/>
       <c r="H56" s="46" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
+      <c r="I56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="46">
+        <v>5</v>
+      </c>
       <c r="K56" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4630,19 +4646,19 @@
       <c r="S56" s="24"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="53"/>
-      <c r="B57" s="55" t="s">
+      <c r="A57" s="65"/>
+      <c r="B57" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="57" t="s">
+      <c r="C57" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="58"/>
-      <c r="E57" s="61" t="s">
+      <c r="D57" s="61"/>
+      <c r="E57" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="61"/>
-      <c r="G57" s="63"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="55"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4669,12 +4685,12 @@
       <c r="S57" s="23"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="54"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="56"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
       <c r="G58" s="56"/>
       <c r="H58" s="46" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4698,15 +4714,15 @@
       <c r="S58" s="35"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="69"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="112"/>
       <c r="H59" s="17" t="s">
         <v>16</v>
       </c>
@@ -4730,13 +4746,13 @@
       <c r="S59" s="27"/>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="74"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="70"/>
+      <c r="A60" s="71"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="113"/>
       <c r="H60" s="7" t="s">
         <v>17</v>
       </c>
@@ -4744,28 +4760,30 @@
       <c r="J60" s="7"/>
       <c r="K60" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L60" s="28"/>
       <c r="M60" s="28"/>
       <c r="N60" s="28"/>
       <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
+      <c r="P60" s="28">
+        <v>3</v>
+      </c>
       <c r="Q60" s="28"/>
       <c r="R60" s="28"/>
       <c r="S60" s="28"/>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="53">
+      <c r="A61" s="65">
         <v>1</v>
       </c>
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
       <c r="G61" s="51"/>
       <c r="H61" s="18" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4792,12 +4810,12 @@
       <c r="S61" s="23"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="54"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
       <c r="G62" s="52"/>
       <c r="H62" s="19" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4819,19 +4837,19 @@
       <c r="S62" s="24"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="53"/>
-      <c r="B63" s="55" t="s">
+      <c r="A63" s="65"/>
+      <c r="B63" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="57" t="s">
+      <c r="C63" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="58"/>
-      <c r="E63" s="61" t="s">
+      <c r="D63" s="61"/>
+      <c r="E63" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F63" s="61"/>
-      <c r="G63" s="63"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="55"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4858,19 +4876,23 @@
       <c r="S63" s="23"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="54"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="56"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
       <c r="G64" s="56"/>
       <c r="H64" s="46" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
+      <c r="I64" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J64" s="46">
+        <v>2</v>
+      </c>
       <c r="K64" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4887,19 +4909,19 @@
       <c r="S64" s="24"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="53"/>
-      <c r="B65" s="55" t="s">
+      <c r="A65" s="65"/>
+      <c r="B65" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="57" t="s">
+      <c r="C65" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D65" s="58"/>
-      <c r="E65" s="61" t="s">
+      <c r="D65" s="61"/>
+      <c r="E65" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F65" s="61"/>
-      <c r="G65" s="63"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="55"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4926,19 +4948,23 @@
       <c r="S65" s="23"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="54"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="56"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
       <c r="G66" s="56"/>
       <c r="H66" s="46" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
+      <c r="I66" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J66" s="46">
+        <v>2</v>
+      </c>
       <c r="K66" s="9">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -4957,19 +4983,19 @@
       <c r="S66" s="24"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="53"/>
-      <c r="B67" s="55" t="s">
+      <c r="A67" s="65"/>
+      <c r="B67" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="57" t="s">
+      <c r="C67" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D67" s="58"/>
-      <c r="E67" s="61" t="s">
+      <c r="D67" s="61"/>
+      <c r="E67" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="61"/>
-      <c r="G67" s="63"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="55"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4996,12 +5022,12 @@
       <c r="S67" s="23"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="54"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="56"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
       <c r="G68" s="56"/>
       <c r="H68" s="46" t="str">
         <f>IF(E67="","","実績")</f>
@@ -5023,16 +5049,16 @@
       <c r="S68" s="24"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="53">
+      <c r="A69" s="65">
         <v>2</v>
       </c>
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="65"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
       <c r="G69" s="51"/>
       <c r="H69" s="18" t="str">
         <f>IF(E69="","","予定")</f>
@@ -5056,12 +5082,12 @@
       <c r="S69" s="23"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="54"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="68"/>
+      <c r="A70" s="66"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
       <c r="G70" s="52"/>
       <c r="H70" s="19" t="str">
         <f>IF(E69="","","実績")</f>
@@ -5083,19 +5109,19 @@
       <c r="S70" s="24"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="53"/>
-      <c r="B71" s="55" t="s">
+      <c r="A71" s="65"/>
+      <c r="B71" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="57" t="s">
+      <c r="C71" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D71" s="58"/>
-      <c r="E71" s="61" t="s">
+      <c r="D71" s="61"/>
+      <c r="E71" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F71" s="61"/>
-      <c r="G71" s="63" t="s">
+      <c r="F71" s="53"/>
+      <c r="G71" s="55" t="s">
         <v>56</v>
       </c>
       <c r="H71" s="8" t="str">
@@ -5124,12 +5150,12 @@
       <c r="S71" s="23"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="54"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="56"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
       <c r="G72" s="56"/>
       <c r="H72" s="46" t="str">
         <f>IF(E71="","","実績")</f>
@@ -5151,19 +5177,19 @@
       <c r="S72" s="24"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="53"/>
-      <c r="B73" s="55" t="s">
+      <c r="A73" s="65"/>
+      <c r="B73" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="57" t="s">
+      <c r="C73" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="58"/>
-      <c r="E73" s="61" t="s">
+      <c r="D73" s="61"/>
+      <c r="E73" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="61"/>
-      <c r="G73" s="63"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="55"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5190,12 +5216,12 @@
       <c r="S73" s="23"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="54"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="56"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
       <c r="G74" s="56"/>
       <c r="H74" s="46" t="str">
         <f>IF(E73="","","実績")</f>
@@ -5217,19 +5243,19 @@
       <c r="S74" s="24"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="53"/>
-      <c r="B75" s="55" t="s">
+      <c r="A75" s="65"/>
+      <c r="B75" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="57" t="s">
+      <c r="C75" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="58"/>
-      <c r="E75" s="61" t="s">
+      <c r="D75" s="61"/>
+      <c r="E75" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F75" s="61"/>
-      <c r="G75" s="63"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="55"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5256,12 +5282,12 @@
       <c r="S75" s="23"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="54"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="56"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
       <c r="G76" s="56"/>
       <c r="H76" s="46" t="str">
         <f>IF(E75="","","実績")</f>
@@ -5283,15 +5309,15 @@
       <c r="S76" s="35"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="71" t="s">
+      <c r="A77" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="B77" s="72"/>
-      <c r="C77" s="72"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="69"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="112"/>
       <c r="H77" s="17" t="s">
         <v>16</v>
       </c>
@@ -5317,13 +5343,13 @@
       <c r="S77" s="27"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="74"/>
-      <c r="B78" s="75"/>
-      <c r="C78" s="75"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="78"/>
-      <c r="F78" s="78"/>
-      <c r="G78" s="70"/>
+      <c r="A78" s="71"/>
+      <c r="B78" s="72"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="75"/>
+      <c r="G78" s="113"/>
       <c r="H78" s="7" t="s">
         <v>17</v>
       </c>
@@ -5343,16 +5369,16 @@
       <c r="S78" s="28"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="53">
+      <c r="A79" s="65">
         <v>1</v>
       </c>
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="65"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
       <c r="G79" s="51"/>
       <c r="H79" s="18" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5376,12 +5402,12 @@
       <c r="S79" s="23"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="54"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
+      <c r="A80" s="66"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
       <c r="G80" s="52"/>
       <c r="H80" s="19" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5405,19 +5431,19 @@
       <c r="S80" s="24"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="53"/>
-      <c r="B81" s="55" t="s">
+      <c r="A81" s="65"/>
+      <c r="B81" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="57" t="s">
+      <c r="C81" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="D81" s="58"/>
-      <c r="E81" s="61" t="s">
+      <c r="D81" s="61"/>
+      <c r="E81" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F81" s="61"/>
-      <c r="G81" s="63"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="55"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5446,12 +5472,12 @@
       <c r="S81" s="23"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="54"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="56"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="60"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="54"/>
       <c r="G82" s="56"/>
       <c r="H82" s="46" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5473,19 +5499,19 @@
       <c r="S82" s="24"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="53"/>
-      <c r="B83" s="55" t="s">
+      <c r="A83" s="65"/>
+      <c r="B83" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="57" t="s">
+      <c r="C83" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="D83" s="58"/>
-      <c r="E83" s="61" t="s">
+      <c r="D83" s="61"/>
+      <c r="E83" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F83" s="61"/>
-      <c r="G83" s="63"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="55"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5512,12 +5538,12 @@
       <c r="S83" s="23"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="54"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="56"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="54"/>
       <c r="G84" s="56"/>
       <c r="H84" s="46" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5539,15 +5565,15 @@
       <c r="S84" s="24"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="71" t="s">
+      <c r="A85" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="B85" s="72"/>
-      <c r="C85" s="72"/>
-      <c r="D85" s="73"/>
-      <c r="E85" s="77"/>
-      <c r="F85" s="77"/>
-      <c r="G85" s="69"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="74"/>
+      <c r="G85" s="112"/>
       <c r="H85" s="17" t="s">
         <v>16</v>
       </c>
@@ -5571,13 +5597,13 @@
       <c r="S85" s="27"/>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="74"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="70"/>
+      <c r="A86" s="71"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="113"/>
       <c r="H86" s="7" t="s">
         <v>17</v>
       </c>
@@ -5597,16 +5623,16 @@
       <c r="S86" s="28"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="53">
+      <c r="A87" s="65">
         <v>1</v>
       </c>
-      <c r="B87" s="57" t="s">
+      <c r="B87" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="65"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
       <c r="G87" s="51"/>
       <c r="H87" s="18" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5630,12 +5656,12 @@
       <c r="S87" s="23"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="54"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="68"/>
+      <c r="A88" s="66"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
       <c r="G88" s="52"/>
       <c r="H88" s="19" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5657,19 +5683,19 @@
       <c r="S88" s="24"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="53"/>
-      <c r="B89" s="55" t="s">
+      <c r="A89" s="65"/>
+      <c r="B89" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="57" t="s">
+      <c r="C89" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D89" s="58"/>
-      <c r="E89" s="61" t="s">
+      <c r="D89" s="61"/>
+      <c r="E89" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F89" s="61"/>
-      <c r="G89" s="63"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="55"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5696,12 +5722,12 @@
       <c r="S89" s="23"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="54"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="56"/>
-      <c r="C90" s="59"/>
-      <c r="D90" s="60"/>
-      <c r="E90" s="62"/>
-      <c r="F90" s="62"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
       <c r="G90" s="56"/>
       <c r="H90" s="46" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5723,19 +5749,19 @@
       <c r="S90" s="24"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="53"/>
-      <c r="B91" s="55" t="s">
+      <c r="A91" s="65"/>
+      <c r="B91" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="64" t="s">
+      <c r="C91" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="D91" s="58"/>
-      <c r="E91" s="61" t="s">
+      <c r="D91" s="61"/>
+      <c r="E91" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F91" s="61"/>
-      <c r="G91" s="63"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="55"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5762,12 +5788,12 @@
       <c r="S91" s="23"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="54"/>
+      <c r="A92" s="66"/>
       <c r="B92" s="56"/>
-      <c r="C92" s="59"/>
-      <c r="D92" s="60"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="54"/>
       <c r="G92" s="56"/>
       <c r="H92" s="46" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5789,16 +5815,16 @@
       <c r="S92" s="24"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="53">
+      <c r="A93" s="65">
         <v>2</v>
       </c>
-      <c r="B93" s="57" t="s">
+      <c r="B93" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="65"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
+      <c r="C93" s="60"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
       <c r="G93" s="51"/>
       <c r="H93" s="18" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5822,12 +5848,12 @@
       <c r="S93" s="23"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="54"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="68"/>
-      <c r="F94" s="68"/>
+      <c r="A94" s="66"/>
+      <c r="B94" s="62"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
       <c r="G94" s="52"/>
       <c r="H94" s="19" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5849,19 +5875,19 @@
       <c r="S94" s="24"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="53"/>
-      <c r="B95" s="55" t="s">
+      <c r="A95" s="65"/>
+      <c r="B95" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C95" s="57" t="s">
+      <c r="C95" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D95" s="58"/>
-      <c r="E95" s="61" t="s">
+      <c r="D95" s="61"/>
+      <c r="E95" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F95" s="61"/>
-      <c r="G95" s="63"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="55"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5888,12 +5914,12 @@
       <c r="S95" s="23"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="54"/>
+      <c r="A96" s="66"/>
       <c r="B96" s="56"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="54"/>
       <c r="G96" s="56"/>
       <c r="H96" s="46" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5915,19 +5941,19 @@
       <c r="S96" s="24"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="53"/>
-      <c r="B97" s="55" t="s">
+      <c r="A97" s="65"/>
+      <c r="B97" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="57" t="s">
+      <c r="C97" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D97" s="58"/>
-      <c r="E97" s="61" t="s">
+      <c r="D97" s="61"/>
+      <c r="E97" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F97" s="61"/>
-      <c r="G97" s="63"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="55"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5954,12 +5980,12 @@
       <c r="S97" s="23"/>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="54"/>
+      <c r="A98" s="66"/>
       <c r="B98" s="56"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="54"/>
       <c r="G98" s="56"/>
       <c r="H98" s="46" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5981,15 +6007,15 @@
       <c r="S98" s="35"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="71" t="s">
+      <c r="A99" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B99" s="72"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="73"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="77"/>
-      <c r="G99" s="69"/>
+      <c r="B99" s="69"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="112"/>
       <c r="H99" s="17" t="s">
         <v>16</v>
       </c>
@@ -6013,13 +6039,13 @@
       <c r="S99" s="27"/>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="74"/>
-      <c r="B100" s="75"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="76"/>
-      <c r="E100" s="78"/>
-      <c r="F100" s="78"/>
-      <c r="G100" s="70"/>
+      <c r="A100" s="71"/>
+      <c r="B100" s="72"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="73"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="113"/>
       <c r="H100" s="7" t="s">
         <v>17</v>
       </c>
@@ -6027,7 +6053,7 @@
       <c r="J100" s="7"/>
       <c r="K100" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L100" s="29"/>
       <c r="M100" s="29"/>
@@ -6035,20 +6061,23 @@
       <c r="O100" s="29"/>
       <c r="P100" s="29"/>
       <c r="Q100" s="29"/>
-      <c r="R100" s="29"/>
+      <c r="R100" s="29">
+        <f>SUM(R102,R108)</f>
+        <v>0.5</v>
+      </c>
       <c r="S100" s="29"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="53">
+      <c r="A101" s="65">
         <v>1</v>
       </c>
-      <c r="B101" s="57" t="s">
+      <c r="B101" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="65"/>
-      <c r="D101" s="58"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
       <c r="G101" s="51"/>
       <c r="H101" s="18" t="str">
         <f>IF(E101="","","予定")</f>
@@ -6072,12 +6101,12 @@
       <c r="S101" s="23"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="54"/>
-      <c r="B102" s="59"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="60"/>
-      <c r="E102" s="68"/>
-      <c r="F102" s="68"/>
+      <c r="A102" s="66"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="58"/>
       <c r="G102" s="52"/>
       <c r="H102" s="19" t="str">
         <f>IF(E101="","","実績")</f>
@@ -6087,7 +6116,7 @@
       <c r="J102" s="19"/>
       <c r="K102" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L102" s="33"/>
       <c r="M102" s="24"/>
@@ -6095,23 +6124,26 @@
       <c r="O102" s="24"/>
       <c r="P102" s="24"/>
       <c r="Q102" s="24"/>
-      <c r="R102" s="24"/>
+      <c r="R102" s="24">
+        <f>SUM(R104,R106)</f>
+        <v>0.5</v>
+      </c>
       <c r="S102" s="24"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="53"/>
-      <c r="B103" s="55" t="s">
+      <c r="A103" s="65"/>
+      <c r="B103" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C103" s="57" t="s">
+      <c r="C103" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="D103" s="58"/>
-      <c r="E103" s="61" t="s">
+      <c r="D103" s="61"/>
+      <c r="E103" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F103" s="61"/>
-      <c r="G103" s="63"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="55"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6138,22 +6170,26 @@
       <c r="S103" s="23"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="54"/>
+      <c r="A104" s="66"/>
       <c r="B104" s="56"/>
-      <c r="C104" s="59"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="62"/>
-      <c r="F104" s="62"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
       <c r="G104" s="56"/>
       <c r="H104" s="46" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I104" s="46"/>
-      <c r="J104" s="46"/>
+      <c r="I104" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J104" s="46">
+        <v>5</v>
+      </c>
       <c r="K104" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L104" s="33"/>
       <c r="M104" s="24"/>
@@ -6161,23 +6197,25 @@
       <c r="O104" s="24"/>
       <c r="P104" s="24"/>
       <c r="Q104" s="24"/>
-      <c r="R104" s="24"/>
+      <c r="R104" s="24">
+        <v>0.5</v>
+      </c>
       <c r="S104" s="24"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="53"/>
-      <c r="B105" s="55" t="s">
+      <c r="A105" s="65"/>
+      <c r="B105" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="57" t="s">
+      <c r="C105" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="D105" s="58"/>
-      <c r="E105" s="61" t="s">
+      <c r="D105" s="61"/>
+      <c r="E105" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F105" s="61"/>
-      <c r="G105" s="63"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="55"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6204,12 +6242,12 @@
       <c r="S105" s="23"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="54"/>
+      <c r="A106" s="66"/>
       <c r="B106" s="56"/>
-      <c r="C106" s="59"/>
-      <c r="D106" s="60"/>
-      <c r="E106" s="62"/>
-      <c r="F106" s="62"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
       <c r="G106" s="56"/>
       <c r="H106" s="46" t="str">
         <f>IF(E105="","","実績")</f>
@@ -6231,16 +6269,16 @@
       <c r="S106" s="24"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="53">
+      <c r="A107" s="65">
         <v>2</v>
       </c>
-      <c r="B107" s="57" t="s">
+      <c r="B107" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C107" s="65"/>
-      <c r="D107" s="58"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="67"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="57"/>
       <c r="G107" s="51"/>
       <c r="H107" s="18" t="str">
         <f>IF(E107="","","予定")</f>
@@ -6264,12 +6302,12 @@
       <c r="S107" s="23"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="54"/>
-      <c r="B108" s="59"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="60"/>
-      <c r="E108" s="68"/>
-      <c r="F108" s="68"/>
+      <c r="A108" s="66"/>
+      <c r="B108" s="62"/>
+      <c r="C108" s="63"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58"/>
       <c r="G108" s="52"/>
       <c r="H108" s="19" t="str">
         <f>IF(E107="","","実績")</f>
@@ -6287,23 +6325,26 @@
       <c r="O108" s="24"/>
       <c r="P108" s="24"/>
       <c r="Q108" s="24"/>
-      <c r="R108" s="24"/>
+      <c r="R108" s="24">
+        <f>SUM(R110,R112)</f>
+        <v>0</v>
+      </c>
       <c r="S108" s="24"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="53"/>
-      <c r="B109" s="55" t="s">
+      <c r="A109" s="65"/>
+      <c r="B109" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="57" t="s">
+      <c r="C109" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D109" s="58"/>
-      <c r="E109" s="61" t="s">
+      <c r="D109" s="61"/>
+      <c r="E109" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F109" s="61"/>
-      <c r="G109" s="63"/>
+      <c r="F109" s="53"/>
+      <c r="G109" s="55"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6330,18 +6371,20 @@
       <c r="S109" s="23"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="54"/>
+      <c r="A110" s="66"/>
       <c r="B110" s="56"/>
-      <c r="C110" s="59"/>
-      <c r="D110" s="60"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="62"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="54"/>
+      <c r="F110" s="54"/>
       <c r="G110" s="56"/>
       <c r="H110" s="46" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I110" s="46"/>
+      <c r="I110" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J110" s="46"/>
       <c r="K110" s="9">
         <f t="shared" si="15"/>
@@ -6357,19 +6400,19 @@
       <c r="S110" s="24"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="53"/>
-      <c r="B111" s="55" t="s">
+      <c r="A111" s="65"/>
+      <c r="B111" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="57" t="s">
+      <c r="C111" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D111" s="58"/>
-      <c r="E111" s="61" t="s">
+      <c r="D111" s="61"/>
+      <c r="E111" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F111" s="61"/>
-      <c r="G111" s="63"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="55"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -6396,19 +6439,23 @@
       <c r="S111" s="23"/>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="54"/>
+      <c r="A112" s="66"/>
       <c r="B112" s="56"/>
-      <c r="C112" s="59"/>
-      <c r="D112" s="60"/>
-      <c r="E112" s="62"/>
-      <c r="F112" s="62"/>
+      <c r="C112" s="62"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="54"/>
+      <c r="F112" s="54"/>
       <c r="G112" s="56"/>
       <c r="H112" s="46" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I112" s="46"/>
-      <c r="J112" s="46"/>
+      <c r="I112" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J112" s="8">
+        <v>1</v>
+      </c>
       <c r="K112" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6438,19 +6485,284 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
@@ -6475,379 +6787,114 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L9:S18 L27:S36">
-    <cfRule type="expression" dxfId="33" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="45" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="46" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:S45 L47:S47 L46:O46 Q46:S46 L49:S49 L48:O48 Q48:S48 L51:S58 L50:O50 Q50:S50">
-    <cfRule type="expression" dxfId="31" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="43" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="44" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:S20">
-    <cfRule type="expression" dxfId="29" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="41" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="42" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61:S64 L67:S68 L69:L76 N76:S76 O69:S75">
-    <cfRule type="expression" dxfId="27" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="39" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L61), L61&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="40" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L61), L61&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L79:S84">
-    <cfRule type="expression" dxfId="25" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="37" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L79), L79&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="38" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L79), L79&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:S22">
-    <cfRule type="expression" dxfId="23" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="33" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L21), L21&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="34" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L21), L21&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:S38 L41:S42">
-    <cfRule type="expression" dxfId="21" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="27" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L37), L37&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="28" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L37), L37&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:S40">
-    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L39), L39&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L39), L39&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65:S66">
-    <cfRule type="expression" dxfId="17" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L65), L65&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L65), L65&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M69:M76">
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="17" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(M69), M69&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="18" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(M69), M69&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N69:N75">
-    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(N69), N69&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="16" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(N69), N69&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:S26">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L25), L25&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L25), L25&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7082,18 +7129,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7115,18 +7162,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/第三反復/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/第三反復/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBEAD9B-2D9D-4DE9-8703-7FE7D0D99775}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D4E18B-9BAE-4CE7-A3AA-D84C1AE2CA63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="15" windowWidth="19680" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02_SHOCK" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="78">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -647,13 +647,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>秀田</t>
-    <rPh sb="0" eb="2">
-      <t>ヒデタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>月</t>
     <rPh sb="0" eb="1">
       <t>ゲツ</t>
@@ -688,6 +681,35 @@
     <t>秀田、大石</t>
     <rPh sb="3" eb="5">
       <t>オオイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秀田、大石、千野</t>
+    <rPh sb="0" eb="2">
+      <t>ヒデタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オオイシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第２反復の振り返り</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1923,7 +1945,35 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2611,10 +2661,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="M102" sqref="M102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2702,7 +2752,7 @@
       </c>
       <c r="Q2" s="79"/>
       <c r="R2" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S2" s="79"/>
     </row>
@@ -2727,11 +2777,11 @@
       </c>
       <c r="O3" s="83"/>
       <c r="P3" s="82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="83"/>
       <c r="R3" s="85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S3" s="85"/>
     </row>
@@ -2847,8 +2897,8 @@
         <v>15</v>
       </c>
       <c r="R6" s="37">
-        <f>SUM(R8,R24,R44,R60,R78,R100)</f>
-        <v>3</v>
+        <f>SUM(R8,R24,R44,R60,R78,R86,R100)</f>
+        <v>9</v>
       </c>
       <c r="S6" s="37"/>
     </row>
@@ -4127,8 +4177,8 @@
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I42" s="46" t="s">
-        <v>71</v>
+      <c r="I42" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="J42" s="46">
         <v>1</v>
@@ -4202,7 +4252,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44" s="27"/>
       <c r="M44" s="27"/>
@@ -4217,7 +4267,7 @@
       </c>
       <c r="R44" s="27">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="27">
         <f t="shared" si="12"/>
@@ -4353,7 +4403,7 @@
         <v>実績</v>
       </c>
       <c r="I48" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J48" s="46">
         <v>2</v>
@@ -4425,7 +4475,7 @@
         <v>実績</v>
       </c>
       <c r="I50" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J50" s="46">
         <v>2</v>
@@ -4494,7 +4544,7 @@
       <c r="J52" s="19"/>
       <c r="K52" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="33"/>
       <c r="M52" s="24"/>
@@ -4502,7 +4552,10 @@
       <c r="O52" s="24"/>
       <c r="P52" s="24"/>
       <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
+      <c r="R52" s="24">
+        <f>SUM(R54,R56,R58,)</f>
+        <v>1</v>
+      </c>
       <c r="S52" s="24"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4557,14 +4610,14 @@
         <v>実績</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="J54" s="46">
         <v>5</v>
       </c>
       <c r="K54" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L54" s="33"/>
       <c r="M54" s="24"/>
@@ -4572,7 +4625,9 @@
       <c r="O54" s="24"/>
       <c r="P54" s="24"/>
       <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
+      <c r="R54" s="24">
+        <v>0.5</v>
+      </c>
       <c r="S54" s="24"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4627,14 +4682,14 @@
         <v>実績</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="J56" s="46">
         <v>5</v>
       </c>
       <c r="K56" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L56" s="33"/>
       <c r="M56" s="24"/>
@@ -4642,7 +4697,9 @@
       <c r="O56" s="24"/>
       <c r="P56" s="24"/>
       <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
+      <c r="R56" s="24">
+        <v>0.25</v>
+      </c>
       <c r="S56" s="24"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4696,13 +4753,15 @@
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I58" s="46"/>
+      <c r="I58" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J58" s="46">
         <v>1</v>
       </c>
       <c r="K58" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L58" s="34"/>
       <c r="M58" s="35"/>
@@ -4710,7 +4769,9 @@
       <c r="O58" s="35"/>
       <c r="P58" s="35"/>
       <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
+      <c r="R58" s="35">
+        <v>0.25</v>
+      </c>
       <c r="S58" s="35"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4760,7 +4821,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="9">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L60" s="28"/>
       <c r="M60" s="28"/>
@@ -4769,8 +4830,13 @@
       <c r="P60" s="28">
         <v>3</v>
       </c>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
+      <c r="Q60" s="28">
+        <v>2</v>
+      </c>
+      <c r="R60" s="28">
+        <f>SUM(R62,R70)</f>
+        <v>1</v>
+      </c>
       <c r="S60" s="28"/>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5097,7 +5163,7 @@
       <c r="J70" s="19"/>
       <c r="K70" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="33"/>
       <c r="M70" s="24"/>
@@ -5105,7 +5171,10 @@
       <c r="O70" s="24"/>
       <c r="P70" s="24"/>
       <c r="Q70" s="24"/>
-      <c r="R70" s="24"/>
+      <c r="R70" s="24">
+        <f>SUM(R72,R74,R76,)</f>
+        <v>1</v>
+      </c>
       <c r="S70" s="24"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5161,11 +5230,15 @@
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
+      <c r="I72" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J72" s="46">
+        <v>3</v>
+      </c>
       <c r="K72" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L72" s="33"/>
       <c r="M72" s="24"/>
@@ -5173,7 +5246,9 @@
       <c r="O72" s="24"/>
       <c r="P72" s="24"/>
       <c r="Q72" s="24"/>
-      <c r="R72" s="24"/>
+      <c r="R72" s="24">
+        <v>0.5</v>
+      </c>
       <c r="S72" s="24"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5227,11 +5302,15 @@
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
+      <c r="I74" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J74" s="46">
+        <v>3</v>
+      </c>
       <c r="K74" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L74" s="33"/>
       <c r="M74" s="24"/>
@@ -5239,7 +5318,9 @@
       <c r="O74" s="24"/>
       <c r="P74" s="24"/>
       <c r="Q74" s="24"/>
-      <c r="R74" s="24"/>
+      <c r="R74" s="24">
+        <v>0.25</v>
+      </c>
       <c r="S74" s="24"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5293,11 +5374,15 @@
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I76" s="46"/>
-      <c r="J76" s="46"/>
+      <c r="I76" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J76" s="46">
+        <v>1</v>
+      </c>
       <c r="K76" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L76" s="34"/>
       <c r="M76" s="35"/>
@@ -5305,7 +5390,9 @@
       <c r="O76" s="35"/>
       <c r="P76" s="35"/>
       <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
+      <c r="R76" s="35">
+        <v>0.25</v>
+      </c>
       <c r="S76" s="35"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5357,14 +5444,16 @@
       <c r="J78" s="7"/>
       <c r="K78" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L78" s="28"/>
       <c r="M78" s="28"/>
       <c r="N78" s="28"/>
       <c r="O78" s="28"/>
       <c r="P78" s="28"/>
-      <c r="Q78" s="28"/>
+      <c r="Q78" s="28">
+        <v>4</v>
+      </c>
       <c r="R78" s="28"/>
       <c r="S78" s="28"/>
     </row>
@@ -5611,7 +5700,7 @@
       <c r="J86" s="7"/>
       <c r="K86" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L86" s="29"/>
       <c r="M86" s="28"/>
@@ -5619,7 +5708,10 @@
       <c r="O86" s="28"/>
       <c r="P86" s="28"/>
       <c r="Q86" s="28"/>
-      <c r="R86" s="28"/>
+      <c r="R86" s="28">
+        <f>SUM(R88,R94)</f>
+        <v>2</v>
+      </c>
       <c r="S86" s="28"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5863,7 +5955,7 @@
       <c r="J94" s="19"/>
       <c r="K94" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L94" s="33"/>
       <c r="M94" s="24"/>
@@ -5871,7 +5963,10 @@
       <c r="O94" s="24"/>
       <c r="P94" s="24"/>
       <c r="Q94" s="24"/>
-      <c r="R94" s="24"/>
+      <c r="R94" s="24">
+        <f>SUM(R96,R98)</f>
+        <v>2</v>
+      </c>
       <c r="S94" s="24"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5925,11 +6020,15 @@
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I96" s="46"/>
-      <c r="J96" s="46"/>
+      <c r="I96" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J96" s="46">
+        <v>5</v>
+      </c>
       <c r="K96" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L96" s="33"/>
       <c r="M96" s="24"/>
@@ -5937,7 +6036,9 @@
       <c r="O96" s="24"/>
       <c r="P96" s="24"/>
       <c r="Q96" s="24"/>
-      <c r="R96" s="24"/>
+      <c r="R96" s="24">
+        <v>1.5</v>
+      </c>
       <c r="S96" s="24"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5991,11 +6092,15 @@
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I98" s="46"/>
-      <c r="J98" s="46"/>
+      <c r="I98" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J98" s="46">
+        <v>1</v>
+      </c>
       <c r="K98" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L98" s="34"/>
       <c r="M98" s="35"/>
@@ -6003,7 +6108,9 @@
       <c r="O98" s="35"/>
       <c r="P98" s="35"/>
       <c r="Q98" s="35"/>
-      <c r="R98" s="35"/>
+      <c r="R98" s="35">
+        <v>0.5</v>
+      </c>
       <c r="S98" s="35"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6053,7 +6160,7 @@
       <c r="J100" s="7"/>
       <c r="K100" s="9">
         <f t="shared" si="15"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="L100" s="29"/>
       <c r="M100" s="29"/>
@@ -6063,7 +6170,7 @@
       <c r="Q100" s="29"/>
       <c r="R100" s="29">
         <f>SUM(R102,R108)</f>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="S100" s="29"/>
     </row>
@@ -6143,7 +6250,9 @@
         <v>22</v>
       </c>
       <c r="F103" s="53"/>
-      <c r="G103" s="55"/>
+      <c r="G103" s="55" t="s">
+        <v>77</v>
+      </c>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6317,7 +6426,7 @@
       <c r="J108" s="19"/>
       <c r="K108" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L108" s="33"/>
       <c r="M108" s="24"/>
@@ -6327,7 +6436,7 @@
       <c r="Q108" s="24"/>
       <c r="R108" s="24">
         <f>SUM(R110,R112)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S108" s="24"/>
     </row>
@@ -6385,10 +6494,12 @@
       <c r="I110" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J110" s="46"/>
+      <c r="J110" s="46">
+        <v>5</v>
+      </c>
       <c r="K110" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L110" s="33"/>
       <c r="M110" s="24"/>
@@ -6396,7 +6507,9 @@
       <c r="O110" s="24"/>
       <c r="P110" s="24"/>
       <c r="Q110" s="24"/>
-      <c r="R110" s="24"/>
+      <c r="R110" s="24">
+        <v>1.5</v>
+      </c>
       <c r="S110" s="24"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6457,8 +6570,7 @@
         <v>1</v>
       </c>
       <c r="K112" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L112" s="33"/>
       <c r="M112" s="24"/>
@@ -6466,7 +6578,9 @@
       <c r="O112" s="24"/>
       <c r="P112" s="24"/>
       <c r="Q112" s="24"/>
-      <c r="R112" s="24"/>
+      <c r="R112" s="24">
+        <v>0.5</v>
+      </c>
       <c r="S112" s="24"/>
     </row>
     <row r="113" spans="12:19" x14ac:dyDescent="0.15">
@@ -6803,123 +6917,131 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L9:S18 L27:S36">
-    <cfRule type="expression" dxfId="29" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="47" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="48" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:S45 L47:S47 L46:O46 Q46:S46 L49:S49 L48:O48 Q48:S48 L51:S58 L50:O50 Q50:S50">
-    <cfRule type="expression" dxfId="27" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="45" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="46" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:S20">
-    <cfRule type="expression" dxfId="25" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="43" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="44" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L61:S64 L67:S68 L69:L76 N76:S76 O69:S75">
-    <cfRule type="expression" dxfId="23" priority="39" stopIfTrue="1">
+  <conditionalFormatting sqref="L61:S64 L67:S68 L69:L76 N76:Q76 O69:S69 O70:Q75 S70:S76">
+    <cfRule type="expression" dxfId="27" priority="41" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L61), L61&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="42" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L61), L61&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L79:S84">
-    <cfRule type="expression" dxfId="21" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="39" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L79), L79&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="40" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L79), L79&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:S22">
-    <cfRule type="expression" dxfId="19" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="35" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L21), L21&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="36" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L21), L21&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:S38 L41:S42">
-    <cfRule type="expression" dxfId="17" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="29" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L37), L37&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="30" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L37), L37&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:S40">
-    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="27" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L39), L39&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="28" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L39), L39&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65:S66">
-    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L65), L65&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="26" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L65), L65&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M69:M76">
-    <cfRule type="expression" dxfId="11" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="19" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(M69), M69&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="20" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(M69), M69&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N69:N75">
-    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(N69), N69&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="18" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(N69), N69&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:S26">
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L25), L25&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L25), L25&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(P46), P46&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(P46), P46&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(P48), P48&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(P48), P48&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(P50), P50&gt;0)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(P50), P50&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R70:R76">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(R70), R70&gt;0)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(P50), P50&gt;0)</formula>
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(R70), R70&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
